--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andrew\Penn\Classes\JuniorFall\CIS565\Project1-CUDA-Flocking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695C26D6-AF8C-4E96-B1F1-69DE2029741E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC93A1C0-D5E9-4169-A224-C97C68ECEF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -45,7 +54,7 @@
     <t>Block size</t>
   </si>
   <si>
-    <t>1000 Boid</t>
+    <t>10000 Boid</t>
   </si>
 </sst>
 </file>
@@ -600,7 +609,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1220,20 +1228,29 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$13:$A$16</c:f>
+              <c:f>Sheet1!$A$13:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
@@ -1241,20 +1258,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$B$16</c:f>
+              <c:f>Sheet1!$B$13:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>70.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>70.099999999999994</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1365,20 +1391,29 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$13:$A$16</c:f>
+              <c:f>Sheet1!$A$13:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
@@ -1386,20 +1421,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$13:$C$16</c:f>
+              <c:f>Sheet1!$C$13:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>750</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>700</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>705</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>900</c:v>
                 </c:pt>
               </c:numCache>
@@ -1510,20 +1554,29 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$13:$A$16</c:f>
+              <c:f>Sheet1!$A$13:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
@@ -1531,20 +1584,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$13:$D$16</c:f>
+              <c:f>Sheet1!$D$13:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1167</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1170</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>1166</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>1171</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>1172</c:v>
                 </c:pt>
               </c:numCache>
@@ -2966,16 +3028,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3004,13 +3066,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>815340</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3302,10 +3364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3476,60 +3538,102 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C13">
-        <v>750</v>
+        <v>830</v>
       </c>
       <c r="D13">
-        <v>1170</v>
-      </c>
-      <c r="E13">
-        <v>431</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="B14">
-        <v>70.5</v>
+        <v>67</v>
       </c>
       <c r="C14">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="D14">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>512</v>
+        <v>64</v>
       </c>
       <c r="B15">
-        <v>70.099999999999994</v>
+        <v>72.8</v>
       </c>
       <c r="C15">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="D15">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
+        <v>128</v>
+      </c>
+      <c r="B16">
+        <v>72</v>
+      </c>
+      <c r="C16">
+        <v>750</v>
+      </c>
+      <c r="D16">
+        <v>1170</v>
+      </c>
+      <c r="E16">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>256</v>
+      </c>
+      <c r="B17">
+        <v>70.5</v>
+      </c>
+      <c r="C17">
+        <v>700</v>
+      </c>
+      <c r="D17">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>512</v>
+      </c>
+      <c r="B18">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="C18">
+        <v>705</v>
+      </c>
+      <c r="D18">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>1024</v>
       </c>
-      <c r="B16">
+      <c r="B19">
         <v>70</v>
       </c>
-      <c r="C16">
+      <c r="C19">
         <v>900</v>
       </c>
-      <c r="D16">
+      <c r="D19">
         <v>1172</v>
       </c>
     </row>
